--- a/MEDIA/202011032843應付帳款明細.xlsx
+++ b/MEDIA/202011032843應付帳款明細.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -370,7 +370,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>森邦(股)應付帳款明細(2020-10-01~2020-10-30)</t>
+          <t>森邦(股)應付帳款明細(2020-09-25~2020-10-31)</t>
         </is>
       </c>
     </row>
@@ -464,231 +464,231 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>20001946</t>
+          <t>20001813</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>20005358</t>
+          <t>20005312</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>20201014</t>
+          <t>20201013</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>100142</t>
+          <t>100510</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>寬友股份有限公司                                </t>
+          <t>台灣可果美股份有限公司                             </t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>IN20</t>
+          <t>IN10</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>IN20</t>
+          <t>IN10</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>740002                   </t>
+          <t>102012                   </t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2.8"味碟                        </t>
+          <t>特級蕃茄醬(瓶)/3150g                </t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2.8"味碟                        </t>
+          <t>特級蕃茄醬(瓶)/3150g 80箱            </t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>TSF21021                      </t>
+          <t>6瓶/箱,私版標貼,保存1年,80箱/板          </t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>480</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>110</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>1800</t>
+          <t>52800</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1800</t>
+          <t>52800</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>2640</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>1890</t>
+          <t>55440</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20001946</t>
+          <t>20001813</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>20005358</t>
+          <t>20005619</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>20201014</t>
+          <t>20201027</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>100142</t>
+          <t>100510</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>寬友股份有限公司                                </t>
+          <t>台灣可果美股份有限公司                             </t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>IN20</t>
+          <t>IN10</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>IN20</t>
+          <t>IN10</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>750001                   </t>
+          <t>102015-1                 </t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>麵包籃                           </t>
+          <t>蕃茄醬包/袋(200小包)                 </t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>麵包籃                           </t>
+          <t>蕃茄醬包/袋(200小包) 88箱             </t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>橢圓形籐籃22.5*17*6cm (C39Z1)塑膠仿藤  </t>
+          <t>10g 5袋/箱  10g/小包              </t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>440</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>127</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>16500</t>
+          <t>55880</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>16500</t>
+          <t>55880</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>825</t>
+          <t>2794</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>17325</t>
+          <t>58674</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20001946</t>
+          <t>20001813</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>20005358</t>
+          <t>20005619</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>20201014</t>
+          <t>20201027</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>100142</t>
+          <t>100510</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>寬友股份有限公司                                </t>
+          <t>台灣可果美股份有限公司                             </t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>IN20</t>
+          <t>IN10</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>IN20</t>
+          <t>IN10</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>716001                   </t>
+          <t>102015-1                 </t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>止滑托盤11"*15"(無LOGO)            </t>
+          <t>蕃茄醬包/袋(200小包)                 </t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>止滑托盤11"*15"(無LOGO)            </t>
+          <t>蕃茄醬包/袋(200小包) 2箱搭贈            </t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BROWN止滑托盤11"*15",無LOGO        </t>
+          <t>10g 5袋/箱  10g/小包              </t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -698,271 +698,97 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2205</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>20001946</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>20005358</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>20201014</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>100142</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>寬友股份有限公司                                </t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>IN20</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>IN20</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>720023                   </t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>S.T圓深杓60.CC                   </t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>S.T圓深杓60.CC                   </t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>                              </t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>158</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>6320</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>6320</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>6636</t>
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" s="1" t="inlineStr">
+        <is>
+          <t>小計</t>
+        </is>
+      </c>
+      <c r="O6" s="1" t="inlineStr">
+        <is>
+          <t>108,680</t>
+        </is>
+      </c>
+      <c r="P6" s="1" t="inlineStr">
+        <is>
+          <t>5,434</t>
+        </is>
+      </c>
+      <c r="Q6" s="1" t="inlineStr">
+        <is>
+          <t>114,114</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>20001946</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>20005358</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>20201014</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>100142</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>寬友股份有限公司                                </t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>IN20</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>IN20</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>750002                   </t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>三明治塑膠長方籃40*30*4cm             </t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>三明治塑膠長方籃40*30*4cm             </t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>100個/箱,客製版 長方形塑膠藤籃41.25*30 (C3</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>209</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>6270</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>6270</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>314</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>6584</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" s="1" t="inlineStr">
-        <is>
-          <t>小計</t>
-        </is>
-      </c>
-      <c r="O8" s="1" t="inlineStr">
-        <is>
-          <t>32,990</t>
-        </is>
-      </c>
-      <c r="P8" s="1" t="inlineStr">
-        <is>
-          <t>1,650</t>
-        </is>
-      </c>
-      <c r="Q8" s="1" t="inlineStr">
-        <is>
-          <t>34,640</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" s="2" t="inlineStr">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" s="2" t="inlineStr">
         <is>
           <t>總計</t>
         </is>
       </c>
-      <c r="O9" s="2" t="inlineStr">
-        <is>
-          <t>32,990</t>
-        </is>
-      </c>
-      <c r="P9" s="2" t="inlineStr">
-        <is>
-          <t>1,650</t>
-        </is>
-      </c>
-      <c r="Q9" s="2" t="inlineStr">
-        <is>
-          <t>34,640</t>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>108,680</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>5,434</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>114,114</t>
         </is>
       </c>
     </row>
